--- a/files/_development/spielerranglisten1415.xlsx
+++ b/files/_development/spielerranglisten1415.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531E3DA4-5A1F-4FCC-ACE6-E7A2BDF4613A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D13BC97-A6CD-4C41-B546-85CFE76A78A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/files/_development/spielerranglisten1415.xlsx
+++ b/files/_development/spielerranglisten1415.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D13BC97-A6CD-4C41-B546-85CFE76A78A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D201E4-2AC2-4C53-85A7-C7B3D1116BF9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="300">
   <si>
     <t>Nachname</t>
   </si>
@@ -224,6 +229,702 @@
   </si>
   <si>
     <t>0650/4573057</t>
+  </si>
+  <si>
+    <t>ATV Andorf</t>
+  </si>
+  <si>
+    <t>Union Stadl Paura</t>
+  </si>
+  <si>
+    <t>Hoffelner</t>
+  </si>
+  <si>
+    <t>Taferner</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Weidinger</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Koch</t>
+  </si>
+  <si>
+    <t>Walter</t>
+  </si>
+  <si>
+    <t>Mayrhofer</t>
+  </si>
+  <si>
+    <t>Franz</t>
+  </si>
+  <si>
+    <t>Grügner</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Ronald</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>0676/4546039</t>
+  </si>
+  <si>
+    <t>Fuchs</t>
+  </si>
+  <si>
+    <t>Renate</t>
+  </si>
+  <si>
+    <t>Marinkovic</t>
+  </si>
+  <si>
+    <t>Jelica</t>
+  </si>
+  <si>
+    <t>Schmidt</t>
+  </si>
+  <si>
+    <t>Askö Linz Badminton</t>
+  </si>
+  <si>
+    <t>16.</t>
+  </si>
+  <si>
+    <t>17.</t>
+  </si>
+  <si>
+    <t>18.</t>
+  </si>
+  <si>
+    <t>19.</t>
+  </si>
+  <si>
+    <t>20.</t>
+  </si>
+  <si>
+    <t>Razinger</t>
+  </si>
+  <si>
+    <t>Felix</t>
+  </si>
+  <si>
+    <t>Kolbeinsson</t>
+  </si>
+  <si>
+    <t>Axel</t>
+  </si>
+  <si>
+    <t>Wiesinger</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>MF1</t>
+  </si>
+  <si>
+    <t>0664/8411881</t>
+  </si>
+  <si>
+    <t>MF2</t>
+  </si>
+  <si>
+    <t>Peterseil</t>
+  </si>
+  <si>
+    <t>Manfred</t>
+  </si>
+  <si>
+    <t>Stelzmüller</t>
+  </si>
+  <si>
+    <t>Philipp</t>
+  </si>
+  <si>
+    <t>0669/18027910</t>
+  </si>
+  <si>
+    <t>Neundlinger</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Hiesböck</t>
+  </si>
+  <si>
+    <t>Karl</t>
+  </si>
+  <si>
+    <t>Mößler</t>
+  </si>
+  <si>
+    <t>Leopoldseder</t>
+  </si>
+  <si>
+    <t>Harald</t>
+  </si>
+  <si>
+    <t>Brüggenwerth</t>
+  </si>
+  <si>
+    <t>Matteo</t>
+  </si>
+  <si>
+    <t>Paar</t>
+  </si>
+  <si>
+    <t>Dennis</t>
+  </si>
+  <si>
+    <t>Talukder</t>
+  </si>
+  <si>
+    <t>Mosrumiah</t>
+  </si>
+  <si>
+    <t>Eidenberger</t>
+  </si>
+  <si>
+    <t>Manuel</t>
+  </si>
+  <si>
+    <t>Zierer</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Grafenberger</t>
+  </si>
+  <si>
+    <t>Marvin</t>
+  </si>
+  <si>
+    <t>Carle</t>
+  </si>
+  <si>
+    <t>Erschbaumer</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Hinterkörner</t>
+  </si>
+  <si>
+    <t>Fröhlich</t>
+  </si>
+  <si>
+    <t>Joanna</t>
+  </si>
+  <si>
+    <t>Kattner</t>
+  </si>
+  <si>
+    <t>Rosa</t>
+  </si>
+  <si>
+    <t>Susanne</t>
+  </si>
+  <si>
+    <t>Wurmböck</t>
+  </si>
+  <si>
+    <t>Elfriede</t>
+  </si>
+  <si>
+    <t>Marah</t>
+  </si>
+  <si>
+    <t>Barbara</t>
+  </si>
+  <si>
+    <t>Krauthaufer</t>
+  </si>
+  <si>
+    <t>Gertrude</t>
+  </si>
+  <si>
+    <t>Magalena</t>
+  </si>
+  <si>
+    <t>Waldherr</t>
+  </si>
+  <si>
+    <t>Katharina</t>
+  </si>
+  <si>
+    <t>Pechmann</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>BSC 70 Linz</t>
+  </si>
+  <si>
+    <t>21.</t>
+  </si>
+  <si>
+    <t>22.</t>
+  </si>
+  <si>
+    <t>23.</t>
+  </si>
+  <si>
+    <t>24.</t>
+  </si>
+  <si>
+    <t>Sepec(EU)</t>
+  </si>
+  <si>
+    <t>Miha jun.</t>
+  </si>
+  <si>
+    <t>Gnedt</t>
+  </si>
+  <si>
+    <t>Rüdiger</t>
+  </si>
+  <si>
+    <t>Wolfgang</t>
+  </si>
+  <si>
+    <t>Kek(EU)</t>
+  </si>
+  <si>
+    <t>Jamnik</t>
+  </si>
+  <si>
+    <t>Horvat(EU)</t>
+  </si>
+  <si>
+    <t>Miha</t>
+  </si>
+  <si>
+    <t>Hochgatterer</t>
+  </si>
+  <si>
+    <t>Farooq</t>
+  </si>
+  <si>
+    <t>Tariq</t>
+  </si>
+  <si>
+    <t>Hechenberger</t>
+  </si>
+  <si>
+    <t>Reinhard</t>
+  </si>
+  <si>
+    <t>Walchshofer</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>0650/3243411</t>
+  </si>
+  <si>
+    <t>Pöllhuber</t>
+  </si>
+  <si>
+    <t>Kainrath</t>
+  </si>
+  <si>
+    <t>Springer</t>
+  </si>
+  <si>
+    <t>Tomsovic</t>
+  </si>
+  <si>
+    <t>Arthur</t>
+  </si>
+  <si>
+    <t>Nikita</t>
+  </si>
+  <si>
+    <t>Böhm</t>
+  </si>
+  <si>
+    <t>Sternberger</t>
+  </si>
+  <si>
+    <t>Mitterhauser</t>
+  </si>
+  <si>
+    <t>Klaus</t>
+  </si>
+  <si>
+    <t>Hofer</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Regner</t>
+  </si>
+  <si>
+    <t>Jehart</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>Marc</t>
+  </si>
+  <si>
+    <t>Nemecek</t>
+  </si>
+  <si>
+    <t>Fürst</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>MF3</t>
+  </si>
+  <si>
+    <t>0664/2108529</t>
+  </si>
+  <si>
+    <t>Koncut(EU)</t>
+  </si>
+  <si>
+    <t>Nika</t>
+  </si>
+  <si>
+    <t>Kohlfürst(LS)</t>
+  </si>
+  <si>
+    <t>Sarina</t>
+  </si>
+  <si>
+    <t>Peshekhonova(A)</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Almer(LS-U22)</t>
+  </si>
+  <si>
+    <t>Nina</t>
+  </si>
+  <si>
+    <t>Hofinger</t>
+  </si>
+  <si>
+    <t>Natalie</t>
+  </si>
+  <si>
+    <t>Schwetz(LS-U22)</t>
+  </si>
+  <si>
+    <t>Edelmüller</t>
+  </si>
+  <si>
+    <t>Ursula</t>
+  </si>
+  <si>
+    <t>Wu</t>
+  </si>
+  <si>
+    <t>Tina</t>
+  </si>
+  <si>
+    <t>Wang</t>
+  </si>
+  <si>
+    <t>Bin</t>
+  </si>
+  <si>
+    <t>Schiedermair</t>
+  </si>
+  <si>
+    <t>Lena</t>
+  </si>
+  <si>
+    <t>Kosorus</t>
+  </si>
+  <si>
+    <t>Hilda</t>
+  </si>
+  <si>
+    <t>Perneder</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>Drinovac</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Auer</t>
+  </si>
+  <si>
+    <t>Verena</t>
+  </si>
+  <si>
+    <t>Rammerstorfer</t>
+  </si>
+  <si>
+    <t>Elisa</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>Ritika</t>
+  </si>
+  <si>
+    <t>Wagner</t>
+  </si>
+  <si>
+    <t>Magdalena</t>
+  </si>
+  <si>
+    <t>Haider</t>
+  </si>
+  <si>
+    <t>Selina</t>
+  </si>
+  <si>
+    <t>ASKÖ BV Pasching</t>
+  </si>
+  <si>
+    <t>Leisch</t>
+  </si>
+  <si>
+    <t>Biemann</t>
+  </si>
+  <si>
+    <t>Dorn</t>
+  </si>
+  <si>
+    <t>Kuri</t>
+  </si>
+  <si>
+    <t>Pröll</t>
+  </si>
+  <si>
+    <t>0676/814276220</t>
+  </si>
+  <si>
+    <t>Leidlmayer</t>
+  </si>
+  <si>
+    <t>Pestinger</t>
+  </si>
+  <si>
+    <t>Doris</t>
+  </si>
+  <si>
+    <t>Elisabeth</t>
+  </si>
+  <si>
+    <t>Schned</t>
+  </si>
+  <si>
+    <t>Ameseder</t>
+  </si>
+  <si>
+    <t>Karin</t>
+  </si>
+  <si>
+    <t>ASKÖ Traun</t>
+  </si>
+  <si>
+    <t>25.</t>
+  </si>
+  <si>
+    <t>26.</t>
+  </si>
+  <si>
+    <t>Zauner</t>
+  </si>
+  <si>
+    <t>Serov</t>
+  </si>
+  <si>
+    <t>Dornig(LS)</t>
+  </si>
+  <si>
+    <t>Ostermann</t>
+  </si>
+  <si>
+    <t>Jakob</t>
+  </si>
+  <si>
+    <t>Ratzenböck</t>
+  </si>
+  <si>
+    <t>Stündl</t>
+  </si>
+  <si>
+    <t>Wieshofer</t>
+  </si>
+  <si>
+    <t>Helmut</t>
+  </si>
+  <si>
+    <t>Danninger</t>
+  </si>
+  <si>
+    <t>0664/4108801</t>
+  </si>
+  <si>
+    <t>Auberger</t>
+  </si>
+  <si>
+    <t>Otmar</t>
+  </si>
+  <si>
+    <t>0699/19211350</t>
+  </si>
+  <si>
+    <t>Stockinger</t>
+  </si>
+  <si>
+    <t>Dieter</t>
+  </si>
+  <si>
+    <t>Froschauer</t>
+  </si>
+  <si>
+    <t>Stingeder</t>
+  </si>
+  <si>
+    <t>Gerhard</t>
+  </si>
+  <si>
+    <t>Hardegger</t>
+  </si>
+  <si>
+    <t>Reifetshammer</t>
+  </si>
+  <si>
+    <t>Rudolf</t>
+  </si>
+  <si>
+    <t>Lösch</t>
+  </si>
+  <si>
+    <t>Buckstegen</t>
+  </si>
+  <si>
+    <t>Pospichal</t>
+  </si>
+  <si>
+    <t>Gustav Rudolf</t>
+  </si>
+  <si>
+    <t>Berndl</t>
+  </si>
+  <si>
+    <t>Luca</t>
+  </si>
+  <si>
+    <t>Schönbauer</t>
+  </si>
+  <si>
+    <t>Jannik</t>
+  </si>
+  <si>
+    <t>Marco</t>
+  </si>
+  <si>
+    <t>Güres</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>Herbert</t>
+  </si>
+  <si>
+    <t>Gallos(LS)</t>
+  </si>
+  <si>
+    <t>Scheer</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Zinganell</t>
+  </si>
+  <si>
+    <t>Karola</t>
+  </si>
+  <si>
+    <t>Pei</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Turner</t>
+  </si>
+  <si>
+    <t>Lelaina</t>
+  </si>
+  <si>
+    <t>Tippelt</t>
+  </si>
+  <si>
+    <t>Nicole</t>
+  </si>
+  <si>
+    <t>Weilguni</t>
+  </si>
+  <si>
+    <t>Bettina</t>
+  </si>
+  <si>
+    <t>Hinterreiter</t>
+  </si>
+  <si>
+    <t>Waldl</t>
+  </si>
+  <si>
+    <t>Daniela</t>
+  </si>
+  <si>
+    <t>Florucz</t>
+  </si>
+  <si>
+    <t>Nadalina Emilia</t>
+  </si>
+  <si>
+    <t>Reitstätter</t>
+  </si>
+  <si>
+    <t>Gebetsberger</t>
+  </si>
+  <si>
+    <t>Lara</t>
+  </si>
+  <si>
+    <t>Maric</t>
+  </si>
+  <si>
+    <t>Sarah</t>
   </si>
 </sst>
 </file>
@@ -259,12 +960,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -545,76 +1250,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H194"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="A183" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G194" sqref="G194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2">
-        <v>32198</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>32076</v>
+        <v>32198</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -625,16 +1322,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>30777</v>
+        <v>32076</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -645,16 +1342,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>30008</v>
+        <v>30777</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -665,19 +1362,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>309</v>
+        <v>30008</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>301</v>
@@ -685,16 +1382,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3284</v>
+        <v>31</v>
+      </c>
+      <c r="D7">
+        <v>309</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -705,16 +1402,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8">
-        <v>1111</v>
+        <v>33</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3284</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -725,16 +1422,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9">
-        <v>34293</v>
+        <v>1111</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -745,16 +1442,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10">
-        <v>1125</v>
+        <v>34293</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -765,16 +1462,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11">
-        <v>30286</v>
+        <v>1125</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -785,16 +1482,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D12">
-        <v>31029</v>
+        <v>30286</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -805,16 +1502,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D13">
-        <v>30007</v>
+        <v>31029</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -825,16 +1522,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
         <v>45</v>
       </c>
       <c r="D14">
-        <v>31751</v>
+        <v>30007</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -845,16 +1542,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D15">
-        <v>1122</v>
+        <v>31751</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -865,16 +1562,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16">
-        <v>32535</v>
+        <v>1122</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -883,38 +1580,38 @@
         <v>301</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18">
-        <v>31381</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17">
+        <v>32535</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
         <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D19">
-        <v>32198</v>
+        <v>31381</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -922,45 +1619,42 @@
       <c r="F19">
         <v>301</v>
       </c>
-      <c r="H19" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20">
-        <v>1703</v>
+        <v>32198</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>301</v>
       </c>
       <c r="H20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D21">
-        <v>30004</v>
+        <v>1703</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -968,19 +1662,22 @@
       <c r="F21">
         <v>301</v>
       </c>
+      <c r="H21" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D22">
-        <v>321113</v>
+        <v>30004</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -991,16 +1688,16 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
         <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D23">
-        <v>31851</v>
+        <v>321113</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -1011,16 +1708,16 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
         <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D24">
-        <v>32255</v>
+        <v>31851</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1031,16 +1728,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D25">
-        <v>1129</v>
+        <v>32255</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1051,16 +1748,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D26">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -1071,16 +1768,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D27">
-        <v>3403</v>
+        <v>1131</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -1089,7 +1786,3084 @@
         <v>301</v>
       </c>
     </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28">
+        <v>3403</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33">
+        <v>31941</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34">
+        <v>31648</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35">
+        <v>31955</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>302</v>
+      </c>
+      <c r="G35" s="4">
+        <v>42058</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36">
+        <v>32512</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37">
+        <v>31513</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38">
+        <v>3933</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39">
+        <v>30873</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>302</v>
+      </c>
+      <c r="G39" t="s">
+        <v>82</v>
+      </c>
+      <c r="H39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41">
+        <v>32536</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42">
+        <v>35973</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43">
+        <v>35773</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48">
+        <v>32214</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49">
+        <v>32151</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50">
+        <v>31010</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51">
+        <v>33115</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>303</v>
+      </c>
+      <c r="G51" t="s">
+        <v>101</v>
+      </c>
+      <c r="H51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52">
+        <v>31875</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>303</v>
+      </c>
+      <c r="G52" t="s">
+        <v>103</v>
+      </c>
+      <c r="H52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53">
+        <v>30619</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54">
+        <v>30010</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" t="s">
+        <v>112</v>
+      </c>
+      <c r="D55">
+        <v>30341</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56">
+        <v>33654</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" t="s">
+        <v>115</v>
+      </c>
+      <c r="D57">
+        <v>30383</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" t="s">
+        <v>117</v>
+      </c>
+      <c r="D58">
+        <v>32628</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" t="s">
+        <v>119</v>
+      </c>
+      <c r="D59">
+        <v>36194</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" t="s">
+        <v>121</v>
+      </c>
+      <c r="D60">
+        <v>36233</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" t="s">
+        <v>123</v>
+      </c>
+      <c r="D61">
+        <v>35113</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" t="s">
+        <v>125</v>
+      </c>
+      <c r="D62">
+        <v>33653</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" t="s">
+        <v>74</v>
+      </c>
+      <c r="D63">
+        <v>30772</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" t="s">
+        <v>127</v>
+      </c>
+      <c r="D64">
+        <v>34274</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>92</v>
+      </c>
+      <c r="B65" t="s">
+        <v>116</v>
+      </c>
+      <c r="C65" t="s">
+        <v>128</v>
+      </c>
+      <c r="D65">
+        <v>35413</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" t="s">
+        <v>130</v>
+      </c>
+      <c r="D66">
+        <v>35293</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>94</v>
+      </c>
+      <c r="B67" t="s">
+        <v>131</v>
+      </c>
+      <c r="C67" t="s">
+        <v>130</v>
+      </c>
+      <c r="D67">
+        <v>35293</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" t="s">
+        <v>132</v>
+      </c>
+      <c r="C69" t="s">
+        <v>58</v>
+      </c>
+      <c r="D69">
+        <v>32084</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" t="s">
+        <v>104</v>
+      </c>
+      <c r="C70" t="s">
+        <v>133</v>
+      </c>
+      <c r="D70">
+        <v>33114</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" t="s">
+        <v>134</v>
+      </c>
+      <c r="C71" t="s">
+        <v>135</v>
+      </c>
+      <c r="D71">
+        <v>34194</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" t="s">
+        <v>131</v>
+      </c>
+      <c r="C72" t="s">
+        <v>136</v>
+      </c>
+      <c r="D72">
+        <v>33993</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" t="s">
+        <v>137</v>
+      </c>
+      <c r="C73" t="s">
+        <v>138</v>
+      </c>
+      <c r="D73">
+        <v>1249</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" t="s">
+        <v>122</v>
+      </c>
+      <c r="C74" t="s">
+        <v>139</v>
+      </c>
+      <c r="D74">
+        <v>34273</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" t="s">
+        <v>113</v>
+      </c>
+      <c r="C75" t="s">
+        <v>140</v>
+      </c>
+      <c r="D75">
+        <v>34593</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" t="s">
+        <v>141</v>
+      </c>
+      <c r="C76" t="s">
+        <v>142</v>
+      </c>
+      <c r="D76">
+        <v>31124</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" t="s">
+        <v>131</v>
+      </c>
+      <c r="C77" t="s">
+        <v>143</v>
+      </c>
+      <c r="D77">
+        <v>34193</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="F77">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" t="s">
+        <v>144</v>
+      </c>
+      <c r="C78" t="s">
+        <v>145</v>
+      </c>
+      <c r="D78">
+        <v>36234</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" t="s">
+        <v>146</v>
+      </c>
+      <c r="C79" t="s">
+        <v>147</v>
+      </c>
+      <c r="D79">
+        <v>36235</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+    </row>
+    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>2</v>
+      </c>
+      <c r="E83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" t="s">
+        <v>153</v>
+      </c>
+      <c r="C84" t="s">
+        <v>154</v>
+      </c>
+      <c r="D84">
+        <v>21057</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" t="s">
+        <v>156</v>
+      </c>
+      <c r="D85">
+        <v>21006</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" t="s">
+        <v>155</v>
+      </c>
+      <c r="C86" t="s">
+        <v>157</v>
+      </c>
+      <c r="D86">
+        <v>21139</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87" t="s">
+        <v>158</v>
+      </c>
+      <c r="C87" t="s">
+        <v>159</v>
+      </c>
+      <c r="D87">
+        <v>34393</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" t="s">
+        <v>160</v>
+      </c>
+      <c r="C88" t="s">
+        <v>161</v>
+      </c>
+      <c r="D88">
+        <v>80402</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+      <c r="F88">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" t="s">
+        <v>162</v>
+      </c>
+      <c r="C89" t="s">
+        <v>115</v>
+      </c>
+      <c r="D89">
+        <v>3602</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="F89">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>13</v>
+      </c>
+      <c r="B90" t="s">
+        <v>163</v>
+      </c>
+      <c r="C90" t="s">
+        <v>164</v>
+      </c>
+      <c r="D90">
+        <v>1197</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+      <c r="F90">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>14</v>
+      </c>
+      <c r="B91" t="s">
+        <v>165</v>
+      </c>
+      <c r="C91" t="s">
+        <v>166</v>
+      </c>
+      <c r="D91">
+        <v>365</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
+      <c r="F91">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>15</v>
+      </c>
+      <c r="B92" t="s">
+        <v>167</v>
+      </c>
+      <c r="C92" t="s">
+        <v>168</v>
+      </c>
+      <c r="D92">
+        <v>32124</v>
+      </c>
+      <c r="E92">
+        <v>3</v>
+      </c>
+      <c r="F92">
+        <v>304</v>
+      </c>
+      <c r="G92" t="s">
+        <v>103</v>
+      </c>
+      <c r="H92" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93" t="s">
+        <v>170</v>
+      </c>
+      <c r="C93" t="s">
+        <v>29</v>
+      </c>
+      <c r="D93">
+        <v>32009</v>
+      </c>
+      <c r="E93">
+        <v>3</v>
+      </c>
+      <c r="F93">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>17</v>
+      </c>
+      <c r="B94" t="s">
+        <v>171</v>
+      </c>
+      <c r="C94" t="s">
+        <v>23</v>
+      </c>
+      <c r="D94">
+        <v>337</v>
+      </c>
+      <c r="E94">
+        <v>3</v>
+      </c>
+      <c r="F94">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>18</v>
+      </c>
+      <c r="B95" t="s">
+        <v>172</v>
+      </c>
+      <c r="C95" t="s">
+        <v>168</v>
+      </c>
+      <c r="D95">
+        <v>31415</v>
+      </c>
+      <c r="E95">
+        <v>3</v>
+      </c>
+      <c r="F95">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>19</v>
+      </c>
+      <c r="B96" t="s">
+        <v>173</v>
+      </c>
+      <c r="C96" t="s">
+        <v>174</v>
+      </c>
+      <c r="D96">
+        <v>32333</v>
+      </c>
+      <c r="E96">
+        <v>3</v>
+      </c>
+      <c r="F96">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>20</v>
+      </c>
+      <c r="B97" t="s">
+        <v>33</v>
+      </c>
+      <c r="C97" t="s">
+        <v>175</v>
+      </c>
+      <c r="D97">
+        <v>30531</v>
+      </c>
+      <c r="E97">
+        <v>3</v>
+      </c>
+      <c r="F97">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>21</v>
+      </c>
+      <c r="B98" t="s">
+        <v>176</v>
+      </c>
+      <c r="C98" t="s">
+        <v>45</v>
+      </c>
+      <c r="D98">
+        <v>32095</v>
+      </c>
+      <c r="E98">
+        <v>3</v>
+      </c>
+      <c r="F98">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>90</v>
+      </c>
+      <c r="B99" t="s">
+        <v>177</v>
+      </c>
+      <c r="C99" t="s">
+        <v>157</v>
+      </c>
+      <c r="D99">
+        <v>31703</v>
+      </c>
+      <c r="E99">
+        <v>3</v>
+      </c>
+      <c r="F99">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>91</v>
+      </c>
+      <c r="B100" t="s">
+        <v>178</v>
+      </c>
+      <c r="C100" t="s">
+        <v>179</v>
+      </c>
+      <c r="D100">
+        <v>31289</v>
+      </c>
+      <c r="E100">
+        <v>3</v>
+      </c>
+      <c r="F100">
+        <v>304</v>
+      </c>
+      <c r="G100" t="s">
+        <v>189</v>
+      </c>
+      <c r="H100" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>92</v>
+      </c>
+      <c r="B101" t="s">
+        <v>180</v>
+      </c>
+      <c r="C101" t="s">
+        <v>181</v>
+      </c>
+      <c r="D101">
+        <v>31582</v>
+      </c>
+      <c r="E101">
+        <v>3</v>
+      </c>
+      <c r="F101">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>93</v>
+      </c>
+      <c r="B102" t="s">
+        <v>182</v>
+      </c>
+      <c r="C102" t="s">
+        <v>74</v>
+      </c>
+      <c r="D102">
+        <v>32853</v>
+      </c>
+      <c r="E102">
+        <v>3</v>
+      </c>
+      <c r="F102">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>94</v>
+      </c>
+      <c r="B103" t="s">
+        <v>182</v>
+      </c>
+      <c r="C103" t="s">
+        <v>100</v>
+      </c>
+      <c r="D103">
+        <v>32854</v>
+      </c>
+      <c r="E103">
+        <v>3</v>
+      </c>
+      <c r="F103">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>149</v>
+      </c>
+      <c r="B104" t="s">
+        <v>183</v>
+      </c>
+      <c r="C104" t="s">
+        <v>184</v>
+      </c>
+      <c r="D104">
+        <v>32601</v>
+      </c>
+      <c r="E104">
+        <v>3</v>
+      </c>
+      <c r="F104">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>150</v>
+      </c>
+      <c r="B105" t="s">
+        <v>162</v>
+      </c>
+      <c r="C105" t="s">
+        <v>185</v>
+      </c>
+      <c r="D105">
+        <v>34154</v>
+      </c>
+      <c r="E105">
+        <v>3</v>
+      </c>
+      <c r="F105">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>151</v>
+      </c>
+      <c r="B106" t="s">
+        <v>186</v>
+      </c>
+      <c r="C106" t="s">
+        <v>130</v>
+      </c>
+      <c r="D106">
+        <v>35016</v>
+      </c>
+      <c r="E106">
+        <v>3</v>
+      </c>
+      <c r="F106">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>152</v>
+      </c>
+      <c r="B107" t="s">
+        <v>187</v>
+      </c>
+      <c r="C107" t="s">
+        <v>188</v>
+      </c>
+      <c r="D107">
+        <v>34159</v>
+      </c>
+      <c r="E107">
+        <v>3</v>
+      </c>
+      <c r="F107">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109" t="s">
+        <v>191</v>
+      </c>
+      <c r="C109" t="s">
+        <v>192</v>
+      </c>
+      <c r="D109">
+        <v>70863</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" t="s">
+        <v>193</v>
+      </c>
+      <c r="C110" t="s">
+        <v>194</v>
+      </c>
+      <c r="D110">
+        <v>61359</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" t="s">
+        <v>195</v>
+      </c>
+      <c r="C111" t="s">
+        <v>196</v>
+      </c>
+      <c r="D111">
+        <v>35133</v>
+      </c>
+      <c r="E111">
+        <v>2</v>
+      </c>
+      <c r="F111">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112" t="s">
+        <v>197</v>
+      </c>
+      <c r="C112" t="s">
+        <v>198</v>
+      </c>
+      <c r="D112">
+        <v>70634</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>11</v>
+      </c>
+      <c r="B113" t="s">
+        <v>199</v>
+      </c>
+      <c r="C113" t="s">
+        <v>200</v>
+      </c>
+      <c r="D113">
+        <v>31522</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+      <c r="F113">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>12</v>
+      </c>
+      <c r="B114" t="s">
+        <v>201</v>
+      </c>
+      <c r="C114" t="s">
+        <v>59</v>
+      </c>
+      <c r="D114">
+        <v>32068</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>13</v>
+      </c>
+      <c r="B115" t="s">
+        <v>202</v>
+      </c>
+      <c r="C115" t="s">
+        <v>203</v>
+      </c>
+      <c r="D115">
+        <v>3172</v>
+      </c>
+      <c r="E115">
+        <v>3</v>
+      </c>
+      <c r="F115">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>14</v>
+      </c>
+      <c r="B116" t="s">
+        <v>204</v>
+      </c>
+      <c r="C116" t="s">
+        <v>205</v>
+      </c>
+      <c r="D116">
+        <v>10768</v>
+      </c>
+      <c r="E116">
+        <v>3</v>
+      </c>
+      <c r="F116">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>15</v>
+      </c>
+      <c r="B117" t="s">
+        <v>206</v>
+      </c>
+      <c r="C117" t="s">
+        <v>207</v>
+      </c>
+      <c r="D117">
+        <v>11000</v>
+      </c>
+      <c r="E117">
+        <v>3</v>
+      </c>
+      <c r="F117">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>16</v>
+      </c>
+      <c r="B118" t="s">
+        <v>208</v>
+      </c>
+      <c r="C118" t="s">
+        <v>140</v>
+      </c>
+      <c r="D118">
+        <v>31508</v>
+      </c>
+      <c r="E118">
+        <v>3</v>
+      </c>
+      <c r="F118">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>17</v>
+      </c>
+      <c r="B119" t="s">
+        <v>182</v>
+      </c>
+      <c r="C119" t="s">
+        <v>54</v>
+      </c>
+      <c r="D119">
+        <v>32455</v>
+      </c>
+      <c r="E119">
+        <v>3</v>
+      </c>
+      <c r="F119">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>18</v>
+      </c>
+      <c r="B120" t="s">
+        <v>33</v>
+      </c>
+      <c r="C120" t="s">
+        <v>209</v>
+      </c>
+      <c r="D120">
+        <v>31705</v>
+      </c>
+      <c r="E120">
+        <v>3</v>
+      </c>
+      <c r="F120">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>19</v>
+      </c>
+      <c r="B121" t="s">
+        <v>210</v>
+      </c>
+      <c r="C121" t="s">
+        <v>211</v>
+      </c>
+      <c r="D121">
+        <v>34773</v>
+      </c>
+      <c r="E121">
+        <v>3</v>
+      </c>
+      <c r="F121">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>20</v>
+      </c>
+      <c r="B122" t="s">
+        <v>212</v>
+      </c>
+      <c r="C122" t="s">
+        <v>213</v>
+      </c>
+      <c r="D122">
+        <v>34157</v>
+      </c>
+      <c r="E122">
+        <v>3</v>
+      </c>
+      <c r="F122">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>21</v>
+      </c>
+      <c r="B123" t="s">
+        <v>214</v>
+      </c>
+      <c r="C123" t="s">
+        <v>215</v>
+      </c>
+      <c r="D123">
+        <v>35015</v>
+      </c>
+      <c r="E123">
+        <v>3</v>
+      </c>
+      <c r="F123">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>90</v>
+      </c>
+      <c r="B124" t="s">
+        <v>216</v>
+      </c>
+      <c r="C124" t="s">
+        <v>217</v>
+      </c>
+      <c r="D124">
+        <v>34156</v>
+      </c>
+      <c r="E124">
+        <v>3</v>
+      </c>
+      <c r="F124">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>91</v>
+      </c>
+      <c r="B125" t="s">
+        <v>218</v>
+      </c>
+      <c r="C125" t="s">
+        <v>219</v>
+      </c>
+      <c r="D125">
+        <v>34162</v>
+      </c>
+      <c r="E125">
+        <v>3</v>
+      </c>
+      <c r="F125">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>92</v>
+      </c>
+      <c r="B126" t="s">
+        <v>220</v>
+      </c>
+      <c r="C126" t="s">
+        <v>221</v>
+      </c>
+      <c r="D126">
+        <v>35014</v>
+      </c>
+      <c r="E126">
+        <v>3</v>
+      </c>
+      <c r="F126">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>93</v>
+      </c>
+      <c r="B127" t="s">
+        <v>222</v>
+      </c>
+      <c r="C127" t="s">
+        <v>223</v>
+      </c>
+      <c r="D127">
+        <v>35593</v>
+      </c>
+      <c r="E127">
+        <v>3</v>
+      </c>
+      <c r="F127">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>94</v>
+      </c>
+      <c r="B128" t="s">
+        <v>224</v>
+      </c>
+      <c r="C128" t="s">
+        <v>225</v>
+      </c>
+      <c r="D128">
+        <v>34161</v>
+      </c>
+      <c r="E128">
+        <v>3</v>
+      </c>
+      <c r="F128">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
+    </row>
+    <row r="132" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>0</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1</v>
+      </c>
+      <c r="D132" t="s">
+        <v>2</v>
+      </c>
+      <c r="E132" t="s">
+        <v>3</v>
+      </c>
+      <c r="F132" t="s">
+        <v>4</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H132" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>7</v>
+      </c>
+      <c r="B133" t="s">
+        <v>227</v>
+      </c>
+      <c r="C133" t="s">
+        <v>41</v>
+      </c>
+      <c r="D133">
+        <v>30921</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" t="s">
+        <v>227</v>
+      </c>
+      <c r="C134" t="s">
+        <v>179</v>
+      </c>
+      <c r="D134">
+        <v>31988</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>9</v>
+      </c>
+      <c r="B135" t="s">
+        <v>228</v>
+      </c>
+      <c r="C135" t="s">
+        <v>110</v>
+      </c>
+      <c r="D135">
+        <v>32216</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>10</v>
+      </c>
+      <c r="B136" t="s">
+        <v>229</v>
+      </c>
+      <c r="C136" t="s">
+        <v>105</v>
+      </c>
+      <c r="D136">
+        <v>1257</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>11</v>
+      </c>
+      <c r="B137" t="s">
+        <v>227</v>
+      </c>
+      <c r="C137" t="s">
+        <v>74</v>
+      </c>
+      <c r="D137">
+        <v>1272</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138" t="s">
+        <v>230</v>
+      </c>
+      <c r="C138" t="s">
+        <v>48</v>
+      </c>
+      <c r="D138">
+        <v>1270</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>13</v>
+      </c>
+      <c r="B139" t="s">
+        <v>231</v>
+      </c>
+      <c r="C139" t="s">
+        <v>112</v>
+      </c>
+      <c r="D139">
+        <v>1275</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <v>305</v>
+      </c>
+      <c r="G139" t="s">
+        <v>82</v>
+      </c>
+      <c r="H139" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>14</v>
+      </c>
+      <c r="B140" t="s">
+        <v>233</v>
+      </c>
+      <c r="C140" t="s">
+        <v>45</v>
+      </c>
+      <c r="D140">
+        <v>32066</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>15</v>
+      </c>
+      <c r="B141" t="s">
+        <v>234</v>
+      </c>
+      <c r="C141" t="s">
+        <v>188</v>
+      </c>
+      <c r="D141">
+        <v>32120</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>7</v>
+      </c>
+      <c r="B143" t="s">
+        <v>233</v>
+      </c>
+      <c r="C143" t="s">
+        <v>235</v>
+      </c>
+      <c r="D143">
+        <v>30504</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>8</v>
+      </c>
+      <c r="B144" t="s">
+        <v>231</v>
+      </c>
+      <c r="C144" t="s">
+        <v>236</v>
+      </c>
+      <c r="D144">
+        <v>1274</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145" t="s">
+        <v>237</v>
+      </c>
+      <c r="C145" t="s">
+        <v>59</v>
+      </c>
+      <c r="D145">
+        <v>30505</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>10</v>
+      </c>
+      <c r="B146" t="s">
+        <v>238</v>
+      </c>
+      <c r="C146" t="s">
+        <v>239</v>
+      </c>
+      <c r="D146">
+        <v>35253</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3"/>
+    </row>
+    <row r="150" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1</v>
+      </c>
+      <c r="D150" t="s">
+        <v>2</v>
+      </c>
+      <c r="E150" t="s">
+        <v>3</v>
+      </c>
+      <c r="F150" t="s">
+        <v>4</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H150" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>7</v>
+      </c>
+      <c r="B151" t="s">
+        <v>75</v>
+      </c>
+      <c r="C151" t="s">
+        <v>43</v>
+      </c>
+      <c r="D151">
+        <v>1313</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>8</v>
+      </c>
+      <c r="B152" t="s">
+        <v>243</v>
+      </c>
+      <c r="C152" t="s">
+        <v>74</v>
+      </c>
+      <c r="D152">
+        <v>1749</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>9</v>
+      </c>
+      <c r="B153" t="s">
+        <v>244</v>
+      </c>
+      <c r="C153" t="s">
+        <v>25</v>
+      </c>
+      <c r="D153">
+        <v>31894</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>10</v>
+      </c>
+      <c r="B154" t="s">
+        <v>245</v>
+      </c>
+      <c r="C154" t="s">
+        <v>179</v>
+      </c>
+      <c r="D154">
+        <v>31577</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>11</v>
+      </c>
+      <c r="B155" t="s">
+        <v>246</v>
+      </c>
+      <c r="C155" t="s">
+        <v>247</v>
+      </c>
+      <c r="D155">
+        <v>31874</v>
+      </c>
+      <c r="E155">
+        <v>2</v>
+      </c>
+      <c r="F155">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>12</v>
+      </c>
+      <c r="B156" t="s">
+        <v>248</v>
+      </c>
+      <c r="C156" t="s">
+        <v>29</v>
+      </c>
+      <c r="D156">
+        <v>30640</v>
+      </c>
+      <c r="E156">
+        <v>2</v>
+      </c>
+      <c r="F156">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>13</v>
+      </c>
+      <c r="B157" t="s">
+        <v>249</v>
+      </c>
+      <c r="C157" t="s">
+        <v>105</v>
+      </c>
+      <c r="D157">
+        <v>1326</v>
+      </c>
+      <c r="E157">
+        <v>2</v>
+      </c>
+      <c r="F157">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>14</v>
+      </c>
+      <c r="B158" t="s">
+        <v>75</v>
+      </c>
+      <c r="C158" t="s">
+        <v>115</v>
+      </c>
+      <c r="D158">
+        <v>1311</v>
+      </c>
+      <c r="E158">
+        <v>2</v>
+      </c>
+      <c r="F158">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>15</v>
+      </c>
+      <c r="B159" t="s">
+        <v>250</v>
+      </c>
+      <c r="C159" t="s">
+        <v>251</v>
+      </c>
+      <c r="D159">
+        <v>31639</v>
+      </c>
+      <c r="E159">
+        <v>2</v>
+      </c>
+      <c r="F159">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>16</v>
+      </c>
+      <c r="B160" t="s">
+        <v>252</v>
+      </c>
+      <c r="C160" t="s">
+        <v>115</v>
+      </c>
+      <c r="D160">
+        <v>31709</v>
+      </c>
+      <c r="E160">
+        <v>3</v>
+      </c>
+      <c r="F160">
+        <v>307</v>
+      </c>
+      <c r="G160" t="s">
+        <v>103</v>
+      </c>
+      <c r="H160" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>17</v>
+      </c>
+      <c r="B161" t="s">
+        <v>254</v>
+      </c>
+      <c r="C161" t="s">
+        <v>255</v>
+      </c>
+      <c r="D161">
+        <v>3420</v>
+      </c>
+      <c r="E161">
+        <v>3</v>
+      </c>
+      <c r="F161">
+        <v>307</v>
+      </c>
+      <c r="G161" t="s">
+        <v>189</v>
+      </c>
+      <c r="H161" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>18</v>
+      </c>
+      <c r="B162" t="s">
+        <v>257</v>
+      </c>
+      <c r="C162" t="s">
+        <v>258</v>
+      </c>
+      <c r="D162">
+        <v>35193</v>
+      </c>
+      <c r="E162">
+        <v>3</v>
+      </c>
+      <c r="F162">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>19</v>
+      </c>
+      <c r="B163" t="s">
+        <v>259</v>
+      </c>
+      <c r="C163" t="s">
+        <v>25</v>
+      </c>
+      <c r="D163">
+        <v>35174</v>
+      </c>
+      <c r="E163">
+        <v>3</v>
+      </c>
+      <c r="F163">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>20</v>
+      </c>
+      <c r="B164" t="s">
+        <v>260</v>
+      </c>
+      <c r="C164" t="s">
+        <v>261</v>
+      </c>
+      <c r="D164">
+        <v>35173</v>
+      </c>
+      <c r="E164">
+        <v>3</v>
+      </c>
+      <c r="F164">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>21</v>
+      </c>
+      <c r="B165" t="s">
+        <v>262</v>
+      </c>
+      <c r="C165" t="s">
+        <v>261</v>
+      </c>
+      <c r="D165">
+        <v>1304</v>
+      </c>
+      <c r="E165">
+        <v>3</v>
+      </c>
+      <c r="F165">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>90</v>
+      </c>
+      <c r="B166" t="s">
+        <v>263</v>
+      </c>
+      <c r="C166" t="s">
+        <v>264</v>
+      </c>
+      <c r="D166">
+        <v>31191</v>
+      </c>
+      <c r="E166">
+        <v>3</v>
+      </c>
+      <c r="F166">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>91</v>
+      </c>
+      <c r="B167" t="s">
+        <v>265</v>
+      </c>
+      <c r="C167" t="s">
+        <v>258</v>
+      </c>
+      <c r="D167">
+        <v>31080</v>
+      </c>
+      <c r="E167">
+        <v>3</v>
+      </c>
+      <c r="F167">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>92</v>
+      </c>
+      <c r="B168" t="s">
+        <v>266</v>
+      </c>
+      <c r="C168" t="s">
+        <v>50</v>
+      </c>
+      <c r="D168">
+        <v>35654</v>
+      </c>
+      <c r="E168">
+        <v>3</v>
+      </c>
+      <c r="F168">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>93</v>
+      </c>
+      <c r="B169" t="s">
+        <v>267</v>
+      </c>
+      <c r="C169" t="s">
+        <v>268</v>
+      </c>
+      <c r="D169">
+        <v>32600</v>
+      </c>
+      <c r="E169">
+        <v>3</v>
+      </c>
+      <c r="F169">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>94</v>
+      </c>
+      <c r="B170" t="s">
+        <v>269</v>
+      </c>
+      <c r="C170" t="s">
+        <v>48</v>
+      </c>
+      <c r="D170">
+        <v>32634</v>
+      </c>
+      <c r="E170">
+        <v>3</v>
+      </c>
+      <c r="F170">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>149</v>
+      </c>
+      <c r="B171" t="s">
+        <v>259</v>
+      </c>
+      <c r="C171" t="s">
+        <v>270</v>
+      </c>
+      <c r="D171">
+        <v>34973</v>
+      </c>
+      <c r="E171">
+        <v>3</v>
+      </c>
+      <c r="F171">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>150</v>
+      </c>
+      <c r="B172" t="s">
+        <v>271</v>
+      </c>
+      <c r="C172" t="s">
+        <v>29</v>
+      </c>
+      <c r="D172">
+        <v>34953</v>
+      </c>
+      <c r="E172">
+        <v>3</v>
+      </c>
+      <c r="F172">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>151</v>
+      </c>
+      <c r="B173" t="s">
+        <v>254</v>
+      </c>
+      <c r="C173" t="s">
+        <v>272</v>
+      </c>
+      <c r="D173">
+        <v>35215</v>
+      </c>
+      <c r="E173">
+        <v>3</v>
+      </c>
+      <c r="F173">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>152</v>
+      </c>
+      <c r="B174" t="s">
+        <v>257</v>
+      </c>
+      <c r="C174" t="s">
+        <v>273</v>
+      </c>
+      <c r="D174">
+        <v>35214</v>
+      </c>
+      <c r="E174">
+        <v>3</v>
+      </c>
+      <c r="F174">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>241</v>
+      </c>
+      <c r="B175" t="s">
+        <v>274</v>
+      </c>
+      <c r="C175" t="s">
+        <v>275</v>
+      </c>
+      <c r="D175">
+        <v>35734</v>
+      </c>
+      <c r="E175">
+        <v>3</v>
+      </c>
+      <c r="F175">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>242</v>
+      </c>
+      <c r="B176" t="s">
+        <v>75</v>
+      </c>
+      <c r="C176" t="s">
+        <v>276</v>
+      </c>
+      <c r="D176">
+        <v>1312</v>
+      </c>
+      <c r="E176">
+        <v>3</v>
+      </c>
+      <c r="F176">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>7</v>
+      </c>
+      <c r="B178" t="s">
+        <v>277</v>
+      </c>
+      <c r="C178" t="s">
+        <v>140</v>
+      </c>
+      <c r="D178">
+        <v>10717</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+      <c r="F178">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>8</v>
+      </c>
+      <c r="B179" t="s">
+        <v>278</v>
+      </c>
+      <c r="C179" t="s">
+        <v>140</v>
+      </c>
+      <c r="D179">
+        <v>31044</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
+      <c r="F179">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>9</v>
+      </c>
+      <c r="B180" t="s">
+        <v>61</v>
+      </c>
+      <c r="C180" t="s">
+        <v>279</v>
+      </c>
+      <c r="D180">
+        <v>32963</v>
+      </c>
+      <c r="E180">
+        <v>2</v>
+      </c>
+      <c r="F180">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>10</v>
+      </c>
+      <c r="B181" t="s">
+        <v>280</v>
+      </c>
+      <c r="C181" t="s">
+        <v>209</v>
+      </c>
+      <c r="D181">
+        <v>32409</v>
+      </c>
+      <c r="E181">
+        <v>2</v>
+      </c>
+      <c r="F181">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>11</v>
+      </c>
+      <c r="B182" t="s">
+        <v>263</v>
+      </c>
+      <c r="C182" t="s">
+        <v>281</v>
+      </c>
+      <c r="D182">
+        <v>31362</v>
+      </c>
+      <c r="E182">
+        <v>3</v>
+      </c>
+      <c r="F182">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>12</v>
+      </c>
+      <c r="B183" t="s">
+        <v>282</v>
+      </c>
+      <c r="C183" t="s">
+        <v>283</v>
+      </c>
+      <c r="D183">
+        <v>3852</v>
+      </c>
+      <c r="E183">
+        <v>3</v>
+      </c>
+      <c r="F183">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>13</v>
+      </c>
+      <c r="B184" t="s">
+        <v>284</v>
+      </c>
+      <c r="C184" t="s">
+        <v>285</v>
+      </c>
+      <c r="D184">
+        <v>32146</v>
+      </c>
+      <c r="E184">
+        <v>3</v>
+      </c>
+      <c r="F184">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>14</v>
+      </c>
+      <c r="B185" t="s">
+        <v>286</v>
+      </c>
+      <c r="C185" t="s">
+        <v>287</v>
+      </c>
+      <c r="D185">
+        <v>31666</v>
+      </c>
+      <c r="E185">
+        <v>3</v>
+      </c>
+      <c r="F185">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>15</v>
+      </c>
+      <c r="B186" t="s">
+        <v>288</v>
+      </c>
+      <c r="C186" t="s">
+        <v>289</v>
+      </c>
+      <c r="D186">
+        <v>1179</v>
+      </c>
+      <c r="E186">
+        <v>3</v>
+      </c>
+      <c r="F186">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>16</v>
+      </c>
+      <c r="B187" t="s">
+        <v>254</v>
+      </c>
+      <c r="C187" t="s">
+        <v>136</v>
+      </c>
+      <c r="D187">
+        <v>35373</v>
+      </c>
+      <c r="E187">
+        <v>3</v>
+      </c>
+      <c r="F187">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>17</v>
+      </c>
+      <c r="B188" t="s">
+        <v>290</v>
+      </c>
+      <c r="C188" t="s">
+        <v>239</v>
+      </c>
+      <c r="D188">
+        <v>35873</v>
+      </c>
+      <c r="E188">
+        <v>3</v>
+      </c>
+      <c r="F188">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>18</v>
+      </c>
+      <c r="B189" t="s">
+        <v>291</v>
+      </c>
+      <c r="C189" t="s">
+        <v>292</v>
+      </c>
+      <c r="D189">
+        <v>35493</v>
+      </c>
+      <c r="E189">
+        <v>3</v>
+      </c>
+      <c r="F189">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>19</v>
+      </c>
+      <c r="B190" t="s">
+        <v>293</v>
+      </c>
+      <c r="C190" t="s">
+        <v>294</v>
+      </c>
+      <c r="D190">
+        <v>34973</v>
+      </c>
+      <c r="E190">
+        <v>3</v>
+      </c>
+      <c r="F190">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>20</v>
+      </c>
+      <c r="B191" t="s">
+        <v>295</v>
+      </c>
+      <c r="C191" t="s">
+        <v>287</v>
+      </c>
+      <c r="D191">
+        <v>35874</v>
+      </c>
+      <c r="E191">
+        <v>3</v>
+      </c>
+      <c r="F191">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>21</v>
+      </c>
+      <c r="B192" t="s">
+        <v>296</v>
+      </c>
+      <c r="C192" t="s">
+        <v>145</v>
+      </c>
+      <c r="D192">
+        <v>35653</v>
+      </c>
+      <c r="E192">
+        <v>3</v>
+      </c>
+      <c r="F192">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>90</v>
+      </c>
+      <c r="B193" t="s">
+        <v>257</v>
+      </c>
+      <c r="C193" t="s">
+        <v>297</v>
+      </c>
+      <c r="D193">
+        <v>35213</v>
+      </c>
+      <c r="E193">
+        <v>3</v>
+      </c>
+      <c r="F193">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>91</v>
+      </c>
+      <c r="B194" t="s">
+        <v>298</v>
+      </c>
+      <c r="C194" t="s">
+        <v>299</v>
+      </c>
+      <c r="D194">
+        <v>35373</v>
+      </c>
+      <c r="E194">
+        <v>3</v>
+      </c>
+      <c r="F194">
+        <v>307</v>
+      </c>
+      <c r="G194" s="4">
+        <v>42066</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="A81:H81"/>
+    <mergeCell ref="A130:H130"/>
+    <mergeCell ref="A148:H148"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
